--- a/Output.xlsx
+++ b/Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>UC</t>
   </si>
@@ -41,61 +41,355 @@
     <t>Customer selects to change password</t>
   </si>
   <si>
+    <t>ControllerAccountRegister</t>
+  </si>
+  <si>
+    <t>index()</t>
+  </si>
+  <si>
+    <t>4a2.</t>
+  </si>
+  <si>
+    <t>Continue to step 2</t>
+  </si>
+  <si>
+    <t>customfield()</t>
+  </si>
+  <si>
+    <t>Register Account</t>
+  </si>
+  <si>
+    <t>Customer selects to register a new account</t>
+  </si>
+  <si>
+    <t>ControllerExtensionTotalReward</t>
+  </si>
+  <si>
+    <t>reward()</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>System prompts for personal details, address, password, newsletter subscription, and another custom fields</t>
+  </si>
+  <si>
+    <t>ControllerCheckoutPaymentAddress</t>
+  </si>
+  <si>
+    <t>save()</t>
+  </si>
+  <si>
+    <t>ControllerCheckoutShippingAddress</t>
+  </si>
+  <si>
+    <t>validate()</t>
+  </si>
+  <si>
+    <t>ControllerCheckoutCheckout</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Customer enters all the information</t>
+  </si>
+  <si>
+    <t>ControllerAccountPassword</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>System creates a new account</t>
+  </si>
+  <si>
     <t>ControllerAccountAccount</t>
   </si>
   <si>
-    <t>index()</t>
-  </si>
-  <si>
-    <t>ControllerAccountWishList</t>
+    <t>country()</t>
+  </si>
+  <si>
+    <t>ControllerCheckoutCart</t>
+  </si>
+  <si>
+    <t>edit()</t>
   </si>
   <si>
     <t>add()</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>System prompts for password twice</t>
-  </si>
-  <si>
-    <t>country()</t>
+    <t>remove()</t>
+  </si>
+  <si>
+    <t>ControllerAccountOrder</t>
+  </si>
+  <si>
+    <t>info()</t>
+  </si>
+  <si>
+    <t>reorder()</t>
+  </si>
+  <si>
+    <t>ControllerCheckoutShippingMethod</t>
+  </si>
+  <si>
+    <t>ControllerCheckoutPaymentMethod</t>
+  </si>
+  <si>
+    <t>ControllerCheckoutConfirm</t>
+  </si>
+  <si>
+    <t>ControllerCheckoutFailure</t>
+  </si>
+  <si>
+    <t>ControllerCheckoutSuccess</t>
+  </si>
+  <si>
+    <t>ModelCheckoutOrder</t>
+  </si>
+  <si>
+    <t>addOrder($data)</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>System activates the account and logs the customer in</t>
+  </si>
+  <si>
+    <t>addOrderHistory($order_id, $order_status_id, $comment = '', $notify = false, $override = false)</t>
+  </si>
+  <si>
+    <t>Place Order</t>
+  </si>
+  <si>
+    <t>Customer selects to checkout</t>
+  </si>
+  <si>
+    <t>ModelAccountOrder</t>
+  </si>
+  <si>
+    <t>getOrder($order_id)</t>
+  </si>
+  <si>
+    <t>getTotalOrders()</t>
+  </si>
+  <si>
+    <t>getOrders($start = 0, $limit = 20)</t>
+  </si>
+  <si>
+    <t>System prompts for billing, delivery details and payment method</t>
   </si>
   <si>
     <t>3.</t>
   </si>
   <si>
-    <t>Customer enters the password twice</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>System checks the entered passwords are the same (are typed correctly)</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>System saves the password</t>
-  </si>
-  <si>
-    <t>4a.</t>
-  </si>
-  <si>
-    <t>Password is not between 4 and 20 characters</t>
-  </si>
-  <si>
-    <t>4a1.</t>
-  </si>
-  <si>
-    <t>System notifies about the password requirements</t>
-  </si>
-  <si>
-    <t>4a2.</t>
-  </si>
-  <si>
-    <t>Continue to step 2</t>
+    <t>Customer enters the billing, delivery details and the payment method</t>
+  </si>
+  <si>
+    <t>ModelAccountCustomer</t>
+  </si>
+  <si>
+    <t>getIps($customer_id)</t>
+  </si>
+  <si>
+    <t>ModelAccountCustomField</t>
+  </si>
+  <si>
+    <t>getCustomFields($customer_group_id = 0)</t>
+  </si>
+  <si>
+    <t>ModelExtensionExtension</t>
+  </si>
+  <si>
+    <t>getExtensions($type)</t>
+  </si>
+  <si>
+    <t>deleteOrder($order_id)</t>
+  </si>
+  <si>
+    <t>editOrder($order_id, $data)</t>
+  </si>
+  <si>
+    <t>ModelCatalogInformation</t>
+  </si>
+  <si>
+    <t>getInformations()</t>
+  </si>
+  <si>
+    <t>ModelCatalogProduct</t>
+  </si>
+  <si>
+    <t>getTotalProductSpecials()</t>
+  </si>
+  <si>
+    <t>getOrderTotals($order_id)</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Customer confirms the order</t>
+  </si>
+  <si>
+    <t>getOrderHistories($order_id)</t>
+  </si>
+  <si>
+    <t>getOrderVouchers($order_id)</t>
+  </si>
+  <si>
+    <t>getOrderProducts($order_id)</t>
+  </si>
+  <si>
+    <t>getOrderProduct($order_id, $order_product_id)</t>
+  </si>
+  <si>
+    <t>getOrderOptions($order_id, $order_product_id)</t>
+  </si>
+  <si>
+    <t>getTotalOrderProductsByOrderId($order_id)</t>
+  </si>
+  <si>
+    <t>getTotalOrderVouchersByOrderId($order_id)</t>
+  </si>
+  <si>
+    <t>getProductOptions($product_id)</t>
+  </si>
+  <si>
+    <t>getProductDiscounts($product_id)</t>
+  </si>
+  <si>
+    <t>getProductRelated($product_id)</t>
+  </si>
+  <si>
+    <t>getProductLayoutId($product_id)</t>
+  </si>
+  <si>
+    <t>getProfiles($product_id)</t>
+  </si>
+  <si>
+    <t>getProfile($product_id, $recurring_id)</t>
+  </si>
+  <si>
+    <t>getTotalProducts($data = array())</t>
+  </si>
+  <si>
+    <t>getProduct($product_id)</t>
+  </si>
+  <si>
+    <t>getProducts($data = array())</t>
+  </si>
+  <si>
+    <t>getProductSpecials($data = array())</t>
+  </si>
+  <si>
+    <t>getLatestProducts($limit)</t>
+  </si>
+  <si>
+    <t>getPopularProducts($limit)</t>
+  </si>
+  <si>
+    <t>getBestSellerProducts($limit)</t>
+  </si>
+  <si>
+    <t>getProductAttributes($product_id)</t>
+  </si>
+  <si>
+    <t>getCategories($product_id)</t>
+  </si>
+  <si>
+    <t>getProductImages($product_id)</t>
+  </si>
+  <si>
+    <t>getCustomField($custom_field_id)</t>
+  </si>
+  <si>
+    <t>addCustomer($data)</t>
+  </si>
+  <si>
+    <t>getCustomer($customer_id)</t>
+  </si>
+  <si>
+    <t>getCustomerByCode($code)</t>
+  </si>
+  <si>
+    <t>getCustomerByToken($token)</t>
+  </si>
+  <si>
+    <t>getLoginAttempts($email)</t>
+  </si>
+  <si>
+    <t>addLoginAttempt($email)</t>
+  </si>
+  <si>
+    <t>getCustomerByEmail($email)</t>
+  </si>
+  <si>
+    <t>getRewardTotal($customer_id)</t>
+  </si>
+  <si>
+    <t>getTotalCustomersByEmail($email)</t>
+  </si>
+  <si>
+    <t>ModelAccountCustomerGroup</t>
+  </si>
+  <si>
+    <t>getCustomerGroup($customer_group_id)</t>
+  </si>
+  <si>
+    <t>getCustomerGroups()</t>
+  </si>
+  <si>
+    <t>getInformation($information_id)</t>
+  </si>
+  <si>
+    <t>getInformationLayoutId($information_id)</t>
+  </si>
+  <si>
+    <t>ModelAccountActivity</t>
+  </si>
+  <si>
+    <t>addActivity($key, $data)</t>
+  </si>
+  <si>
+    <t>Show Order Detail</t>
+  </si>
+  <si>
+    <t>Customer requests to show the order detail</t>
+  </si>
+  <si>
+    <t>Use Reward Points</t>
+  </si>
+  <si>
+    <t>Customer selects to use reward points</t>
+  </si>
+  <si>
+    <t>Manage Cart - Add Product</t>
+  </si>
+  <si>
+    <t>Customer selects to add the product into shopping cart</t>
+  </si>
+  <si>
+    <t>System prompts for quantity and other product attributes</t>
+  </si>
+  <si>
+    <t>Customer enters the quantity and the attributes</t>
+  </si>
+  <si>
+    <t>System saves the product into shopping cart</t>
+  </si>
+  <si>
+    <t>Manage Cart - Remove Product</t>
+  </si>
+  <si>
+    <t>User selects to remove a product from shopping cart</t>
+  </si>
+  <si>
+    <t>System removes the product</t>
+  </si>
+  <si>
+    <t>Include "Show Cart"</t>
   </si>
   <si>
     <t>methods implementing UC</t>
@@ -114,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -124,6 +418,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00FF00"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -145,9 +445,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1"/>
+    <xf applyFont="1" fontId="2"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -155,7 +456,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -206,164 +507,164 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.4375</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.4375</v>
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="6" spans="6:6">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.33766233766233766</v>
       </c>
     </row>
     <row r="7" spans="7:7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.33766233766233766</v>
       </c>
     </row>
     <row r="8" spans="8:8">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.4</v>
+        <v>0.33766233766233766</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.4</v>
+        <v>0.33766233766233766</v>
       </c>
     </row>
     <row r="10" spans="10:10">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0.4</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.33766233766233766</v>
       </c>
     </row>
     <row r="11" spans="11:11">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>18</v>
@@ -375,15 +676,15 @@
         <v>9</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.23404255319148937</v>
+        <v>13</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.33766233766233766</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>18</v>
@@ -392,213 +693,3373 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0.23404255319148937</v>
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.33766233766233766</v>
       </c>
     </row>
     <row r="13" spans="13:13">
       <c r="A13" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.33766233766233766</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="A14" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="15" spans="15:15">
       <c r="A15" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="16" spans="16:16">
       <c r="A16" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>0.2727272727272727</v>
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0.3235294117647059</v>
       </c>
     </row>
     <row r="17" spans="17:17">
       <c r="A17" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="18" spans="18:18">
       <c r="A18" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.29411764705882354</v>
       </c>
     </row>
     <row r="19" spans="19:19">
       <c r="A19" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.27586206896551724</v>
       </c>
     </row>
     <row r="20" spans="20:20">
       <c r="A20" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="21" spans="21:21">
       <c r="A21" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.46153846153846156</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="22" spans="22:22">
       <c r="A22" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="23" spans="23:23">
+      <c r="A23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="24" spans="24:24">
+      <c r="A24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="25" spans="25:25">
+      <c r="A25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="26" spans="26:26">
+      <c r="A26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>0.46153846153846156</v>
+      <c r="E26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="27" spans="27:27">
+      <c r="A27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="28" spans="28:28">
+      <c r="A28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="29" spans="29:29">
+      <c r="A29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="30" spans="30:30">
+      <c r="A30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="31" spans="31:31">
+      <c r="A31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="32" spans="32:32">
+      <c r="A32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="33" spans="33:33">
+      <c r="A33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="34" spans="34:34">
+      <c r="A34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0.2571428571428571</v>
+      </c>
+    </row>
+    <row r="35" spans="35:35">
+      <c r="A35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="36" spans="36:36">
+      <c r="A36" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="37" spans="37:37">
+      <c r="A37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="38" spans="38:38">
+      <c r="A38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="39" spans="39:39">
+      <c r="A39" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="40" spans="40:40">
+      <c r="A40" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="41" spans="41:41">
+      <c r="A41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="42" spans="42:42">
+      <c r="A42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="43" spans="43:43">
+      <c r="A43" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="44" spans="44:44">
+      <c r="A44" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="45" spans="45:45">
+      <c r="A45" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="46" spans="46:46">
+      <c r="A46" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="47" spans="47:47">
+      <c r="A47" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="48" spans="48:48">
+      <c r="A48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="49:49">
+      <c r="A49" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="50" spans="50:50">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="51" spans="51:51">
+      <c r="A51" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="52" spans="52:52">
+      <c r="A52" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="53" spans="53:53">
+      <c r="A53" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="54" spans="54:54">
+      <c r="A54" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="55" spans="55:55">
+      <c r="A55" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="56" spans="56:56">
+      <c r="A56" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+    </row>
+    <row r="57" spans="57:57">
+      <c r="A57" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+    </row>
+    <row r="58" spans="58:58">
+      <c r="A58" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="59:59">
+      <c r="A59" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>0.3148148148148148</v>
+      </c>
+    </row>
+    <row r="60" spans="60:60">
+      <c r="A60" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>0.3090909090909091</v>
+      </c>
+    </row>
+    <row r="61" spans="61:61">
+      <c r="A61" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>0.2909090909090909</v>
+      </c>
+    </row>
+    <row r="62" spans="62:62">
+      <c r="A62" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="63" spans="63:63">
+      <c r="A63" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="64" spans="64:64">
+      <c r="A64" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+    </row>
+    <row r="65" spans="65:65">
+      <c r="A65" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+    </row>
+    <row r="66" spans="66:66">
+      <c r="A66" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+    </row>
+    <row r="67" spans="67:67">
+      <c r="A67" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+    </row>
+    <row r="68" spans="68:68">
+      <c r="A68" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+    </row>
+    <row r="69" spans="69:69">
+      <c r="A69" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+    </row>
+    <row r="70" spans="70:70">
+      <c r="A70" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+    </row>
+    <row r="71" spans="71:71">
+      <c r="A71" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+    </row>
+    <row r="72" spans="72:72">
+      <c r="A72" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+    </row>
+    <row r="73" spans="73:73">
+      <c r="A73" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+    </row>
+    <row r="74" spans="74:74">
+      <c r="A74" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>0.23636363636363636</v>
+      </c>
+    </row>
+    <row r="75" spans="75:75">
+      <c r="A75" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>0.23636363636363636</v>
+      </c>
+    </row>
+    <row r="76" spans="76:76">
+      <c r="A76" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>0.23636363636363636</v>
+      </c>
+    </row>
+    <row r="77" spans="77:77">
+      <c r="A77" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>0.23636363636363636</v>
+      </c>
+    </row>
+    <row r="78" spans="78:78">
+      <c r="A78" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>0.23636363636363636</v>
+      </c>
+    </row>
+    <row r="79" spans="79:79">
+      <c r="A79" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>0.23636363636363636</v>
+      </c>
+    </row>
+    <row r="80" spans="80:80">
+      <c r="A80" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="81" spans="81:81">
+      <c r="A81" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>0.3191489361702128</v>
+      </c>
+    </row>
+    <row r="82" spans="82:82">
+      <c r="A82" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>0.3191489361702128</v>
+      </c>
+    </row>
+    <row r="83" spans="83:83">
+      <c r="A83" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>0.24615384615384617</v>
+      </c>
+    </row>
+    <row r="84" spans="84:84">
+      <c r="A84" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>0.24615384615384617</v>
+      </c>
+    </row>
+    <row r="85" spans="85:85">
+      <c r="A85" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>0.24615384615384617</v>
+      </c>
+    </row>
+    <row r="86" spans="86:86">
+      <c r="A86" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>0.24615384615384617</v>
+      </c>
+    </row>
+    <row r="87" spans="87:87">
+      <c r="A87" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="88" spans="88:88">
+      <c r="A88" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="89" spans="89:89">
+      <c r="A89" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="90" spans="90:90">
+      <c r="A90" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="91" spans="91:91">
+      <c r="A91" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="92" spans="92:92">
+      <c r="A92" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="93" spans="93:93">
+      <c r="A93" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="94" spans="94:94">
+      <c r="A94" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="95" spans="95:95">
+      <c r="A95" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="96" spans="96:96">
+      <c r="A96" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="97" spans="97:97">
+      <c r="A97" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="98" spans="98:98">
+      <c r="A98" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="99" spans="99:99">
+      <c r="A99" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="100" spans="100:100">
+      <c r="A100" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="101" spans="101:101">
+      <c r="A101" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="102" spans="102:102">
+      <c r="A102" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="103" spans="103:103">
+      <c r="A103" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="104" spans="104:104">
+      <c r="A104" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="105" spans="105:105">
+      <c r="A105" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>0.2978723404255319</v>
+      </c>
+    </row>
+    <row r="106" spans="106:106">
+      <c r="A106" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="107" spans="107:107">
+      <c r="A107" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="108" spans="108:108">
+      <c r="A108" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>0.2765957446808511</v>
+      </c>
+    </row>
+    <row r="109" spans="109:109">
+      <c r="A109" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+    </row>
+    <row r="110" spans="110:110">
+      <c r="A110" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="111" spans="111:111">
+      <c r="A111" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F111" s="1" t="n">
+        <v>0.2549019607843137</v>
+      </c>
+    </row>
+    <row r="112" spans="112:112">
+      <c r="A112" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <v>0.24561403508771928</v>
+      </c>
+    </row>
+    <row r="113" spans="113:113">
+      <c r="A113" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="114" spans="114:114">
+      <c r="A114" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="115" spans="115:115">
+      <c r="A115" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="116" spans="116:116">
+      <c r="A116" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F116" s="1" t="n">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="117" spans="117:117">
+      <c r="A117" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F117" s="1" t="n">
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="118" spans="118:118">
+      <c r="A118" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="119" spans="119:119">
+      <c r="A119" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>0.7352941176470589</v>
+      </c>
+    </row>
+    <row r="120" spans="120:120">
+      <c r="A120" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>0.7352941176470589</v>
+      </c>
+    </row>
+    <row r="121" spans="121:121">
+      <c r="A121" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="122" spans="122:122">
+      <c r="A122" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" s="1" t="n">
+        <v>0.40476190476190477</v>
+      </c>
+    </row>
+    <row r="123" spans="123:123">
+      <c r="A123" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="124" spans="124:124">
+      <c r="A124" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" s="1" t="n">
+        <v>0.40476190476190477</v>
+      </c>
+    </row>
+    <row r="125" spans="125:125">
+      <c r="A125" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="126" spans="126:126">
+      <c r="A126" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="127" spans="127:127">
+      <c r="A127" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>0.40476190476190477</v>
+      </c>
+    </row>
+    <row r="128" spans="128:128">
+      <c r="A128" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <v>0.40476190476190477</v>
+      </c>
+    </row>
+    <row r="129" spans="129:129">
+      <c r="A129" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="130" spans="130:130">
+      <c r="A130" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <v>0.37142857142857144</v>
+      </c>
+    </row>
+    <row r="131" spans="131:131">
+      <c r="A131" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <v>0.37142857142857144</v>
+      </c>
+    </row>
+    <row r="132" spans="132:132">
+      <c r="A132" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>0.37142857142857144</v>
+      </c>
+    </row>
+    <row r="133" spans="133:133">
+      <c r="A133" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F133" s="1" t="n">
+        <v>0.37142857142857144</v>
+      </c>
+    </row>
+    <row r="134" spans="134:134">
+      <c r="A134" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="135" spans="135:135">
+      <c r="A135" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="136" spans="136:136">
+      <c r="A136" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="137" spans="137:137">
+      <c r="A137" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="138" spans="138:138">
+      <c r="A138" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="139" spans="139:139">
+      <c r="A139" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="140" spans="140:140">
+      <c r="A140" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="1" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="141" spans="141:141">
+      <c r="A141" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="1" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="142" spans="142:142">
+      <c r="A142" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" s="1" t="n">
+        <v>0.38235294117647056</v>
+      </c>
+    </row>
+    <row r="143" spans="143:143">
+      <c r="A143" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" s="1" t="n">
+        <v>0.38235294117647056</v>
+      </c>
+    </row>
+    <row r="144" spans="144:144">
+      <c r="A144" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F144" s="1" t="n">
+        <v>0.36585365853658536</v>
+      </c>
+    </row>
+    <row r="145" spans="145:145">
+      <c r="A145" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" s="1" t="n">
+        <v>0.36585365853658536</v>
+      </c>
+    </row>
+    <row r="146" spans="146:146">
+      <c r="A146" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F146" s="1" t="n">
+        <v>0.36585365853658536</v>
+      </c>
+    </row>
+    <row r="147" spans="147:147">
+      <c r="A147" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="1" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="148" spans="148:148">
+      <c r="A148" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="1" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="149" spans="149:149">
+      <c r="A149" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="1" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="150" spans="150:150">
+      <c r="A150" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="151" spans="151:151">
+      <c r="A151" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" s="1" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="152" spans="152:152">
+      <c r="A152" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="1" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="153" spans="153:153">
+      <c r="A153" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" s="1" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="154" spans="154:154">
+      <c r="A154" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="1" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="155" spans="155:155">
+      <c r="A155" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F155" s="1" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="156" spans="156:156">
+      <c r="A156" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="157" spans="157:157">
+      <c r="A157" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="158" spans="158:158">
+      <c r="A158" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+    </row>
+    <row r="159" spans="159:159">
+      <c r="A159" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F159" s="1" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+    </row>
+    <row r="160" spans="160:160">
+      <c r="A160" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F160" s="1" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+    </row>
+    <row r="161" spans="161:161">
+      <c r="A161" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161" s="1" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+    </row>
+    <row r="162" spans="162:162">
+      <c r="A162" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F162" s="1" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+    </row>
+    <row r="163" spans="163:163">
+      <c r="A163" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F163" s="1" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+    </row>
+    <row r="164" spans="164:164">
+      <c r="A164" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F164" s="1" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+    </row>
+    <row r="165" spans="165:165">
+      <c r="A165" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="166" spans="166:166">
+      <c r="A166" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="167" spans="167:167">
+      <c r="A167" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="168" spans="168:168">
+      <c r="A168" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="169" spans="169:169">
+      <c r="A169" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="170" spans="170:170">
+      <c r="A170" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="171" spans="171:171">
+      <c r="A171" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="172" spans="172:172">
+      <c r="A172" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="173" spans="173:173">
+      <c r="A173" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="174" spans="174:174">
+      <c r="A174" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F174" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="175" spans="175:175">
+      <c r="A175" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="176" spans="176:176">
+      <c r="A176" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="177" spans="177:177">
+      <c r="A177" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="178" spans="178:178">
+      <c r="A178" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="179" spans="179:179">
+      <c r="A179" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F179" s="1" t="n">
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="180" spans="180:180">
+      <c r="A180" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F180" s="1" t="n">
+        <v>0.29411764705882354</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +4070,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -625,16 +4086,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -651,7 +4112,109 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="A5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="A6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="A7" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="A8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="A9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
